--- a/Slide.xlsx
+++ b/Slide.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Overskrift</t>
   </si>
@@ -47,12 +47,6 @@
     <t>idk</t>
   </si>
   <si>
-    <t>slide5</t>
-  </si>
-  <si>
-    <t>slide6</t>
-  </si>
-  <si>
     <t>slide7</t>
   </si>
   <si>
@@ -116,7 +110,28 @@
     <t>Hvad er kre. ..</t>
   </si>
   <si>
-    <t>fsdhjg</t>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Visuel præsentation af evolution</t>
+  </si>
+  <si>
+    <t>/produkt</t>
+  </si>
+  <si>
+    <t>Vi fortæller om de forskellige ting. Husk at de ikke er tidsmæssige ens.</t>
+  </si>
+  <si>
+    <t>Argument</t>
+  </si>
+  <si>
+    <t>Darwinisme VS Intelligent Design VS Kreationisme</t>
+  </si>
+  <si>
+    <t>/VS</t>
+  </si>
+  <si>
+    <t>Vi fortæller de forskellige argumenter som vi har brugt I projekt opgaven. Husk Pers argumenter.</t>
   </si>
 </sst>
 </file>
@@ -471,16 +486,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,97 +523,112 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Slide.xlsx
+++ b/Slide.xlsx
@@ -83,18 +83,6 @@
     <t>hvad..</t>
   </si>
   <si>
-    <t>/forside</t>
-  </si>
-  <si>
-    <t>/hvad-er-darw</t>
-  </si>
-  <si>
-    <t>/hvad-er-ID</t>
-  </si>
-  <si>
-    <t>/hvad-er-Krea</t>
-  </si>
-  <si>
     <t>Slide show med passende billeder</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>Visuel præsentation af evolution</t>
   </si>
   <si>
-    <t>/produkt</t>
-  </si>
-  <si>
     <t>Vi fortæller om de forskellige ting. Husk at de ikke er tidsmæssige ens.</t>
   </si>
   <si>
@@ -128,10 +113,25 @@
     <t>Darwinisme VS Intelligent Design VS Kreationisme</t>
   </si>
   <si>
-    <t>/VS</t>
-  </si>
-  <si>
     <t>Vi fortæller de forskellige argumenter som vi har brugt I projekt opgaven. Husk Pers argumenter.</t>
+  </si>
+  <si>
+    <t>/VS.html</t>
+  </si>
+  <si>
+    <t>/produkt.html</t>
+  </si>
+  <si>
+    <t>/forside.html</t>
+  </si>
+  <si>
+    <t>/hvad-er-darwinisme.html</t>
+  </si>
+  <si>
+    <t>/hvad-er-intelligent-design.html</t>
+  </si>
+  <si>
+    <t>/hvad-er-kreationisme.html</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -540,13 +540,13 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,13 +557,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,41 +574,41 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/Slide.xlsx
+++ b/Slide.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasper\Documents\KasperMikkel.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikkel\Desktop\EvolutionSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -492,10 +492,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/Slide.xlsx
+++ b/Slide.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Overskrift</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>/hvad-er-kreationisme.html</t>
+  </si>
+  <si>
+    <t>Slideshow</t>
+  </si>
+  <si>
+    <t>Knapper</t>
+  </si>
+  <si>
+    <t>Billeder(resize)</t>
+  </si>
+  <si>
+    <t>Selve fremlgelsen</t>
   </si>
 </sst>
 </file>
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,6 +643,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
